--- a/data/input_behavior/BehaviorScenario_Technology_Power.xlsx
+++ b/data/input_behavior/BehaviorScenario_Technology_Power.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\FLEX\data\input_behavior\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014CB7F2-77F2-4249-9B88-3FF192A1C663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7215" yWindow="-18975" windowWidth="24615" windowHeight="13695"/>
+    <workbookView xWindow="4060" yWindow="-17220" windowWidth="24620" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -48,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,21 +412,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -459,7 +448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -470,7 +459,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -481,7 +470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -492,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -503,7 +492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -514,7 +503,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -525,7 +514,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -536,7 +525,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -547,7 +536,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -558,7 +547,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -569,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -580,7 +569,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -591,7 +580,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -602,7 +591,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -613,7 +602,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -624,7 +613,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -635,7 +624,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -646,7 +635,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -657,7 +646,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -668,7 +657,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -679,7 +668,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -690,7 +679,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -701,7 +690,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -712,7 +701,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -720,10 +709,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -734,7 +723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -745,7 +734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -756,7 +745,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -767,7 +756,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -778,7 +767,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -789,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -800,7 +789,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -811,7 +800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -822,7 +811,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -833,7 +822,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -844,7 +833,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -855,7 +844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -866,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -877,7 +866,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -888,7 +877,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -905,6 +894,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf">
+      <UserInfo>
+        <DisplayName>Yu, Songmin</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="0f10bb0856646bfda2b94dc29ed0a887">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca21336e7eb6462c50ac4645cdd355ca" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -1109,34 +1125,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4123E9A7-AD52-4A33-BBDD-39D9E770116F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
+    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf">
-      <UserInfo>
-        <DisplayName>Yu, Songmin</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{257DA3DA-5CBF-44C8-AF96-57A945D7109F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A82277C-FB17-4D03-8A51-E0EB9D4B4B52}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1153,23 +1161,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{257DA3DA-5CBF-44C8-AF96-57A945D7109F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4123E9A7-AD52-4A33-BBDD-39D9E770116F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
-    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/input_behavior/BehaviorScenario_Technology_Power.xlsx
+++ b/data/input_behavior/BehaviorScenario_Technology_Power.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\FLEX\data\input_behavior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014CB7F2-77F2-4249-9B88-3FF192A1C663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="-17220" windowWidth="24620" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="-17220" windowWidth="24615" windowHeight="13695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="4">
   <si>
     <t>ID_Technology</t>
   </si>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,21 +411,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -448,7 +447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -459,7 +458,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -470,7 +469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -481,7 +480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -492,7 +491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -503,7 +502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -514,7 +513,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -525,7 +524,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -536,7 +535,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -547,7 +546,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -555,10 +554,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -569,7 +568,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -580,7 +579,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -591,7 +590,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -602,7 +601,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -613,7 +612,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -624,7 +623,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -635,7 +634,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -646,7 +645,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -657,7 +656,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -668,7 +667,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -679,7 +678,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -690,7 +689,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -701,7 +700,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -712,7 +711,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -723,7 +722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -734,7 +733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -745,7 +744,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -756,7 +755,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -767,7 +766,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -775,10 +774,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -789,7 +788,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -800,7 +799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -811,7 +810,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -822,7 +821,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -833,7 +832,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -844,7 +843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -852,10 +851,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -863,28 +862,6 @@
         <v>2</v>
       </c>
       <c r="C40" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="4">
         <v>200</v>
       </c>
     </row>
@@ -894,33 +871,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf">
-      <UserInfo>
-        <DisplayName>Yu, Songmin</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="0f10bb0856646bfda2b94dc29ed0a887">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca21336e7eb6462c50ac4645cdd355ca" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -1125,26 +1075,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4123E9A7-AD52-4A33-BBDD-39D9E770116F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
-    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf">
+      <UserInfo>
+        <DisplayName>Yu, Songmin</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{257DA3DA-5CBF-44C8-AF96-57A945D7109F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A82277C-FB17-4D03-8A51-E0EB9D4B4B52}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1161,4 +1119,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4123E9A7-AD52-4A33-BBDD-39D9E770116F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
+    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{257DA3DA-5CBF-44C8-AF96-57A945D7109F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/input_behavior/BehaviorScenario_Technology_Power.xlsx
+++ b/data/input_behavior/BehaviorScenario_Technology_Power.xlsx
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="4">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -871,6 +871,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf">
+      <UserInfo>
+        <DisplayName>Yu, Songmin</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="0f10bb0856646bfda2b94dc29ed0a887">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca21336e7eb6462c50ac4645cdd355ca" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -1075,24 +1093,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf">
-      <UserInfo>
-        <DisplayName>Yu, Songmin</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1103,6 +1103,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4123E9A7-AD52-4A33-BBDD-39D9E770116F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
+    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A82277C-FB17-4D03-8A51-E0EB9D4B4B52}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1121,17 +1132,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4123E9A7-AD52-4A33-BBDD-39D9E770116F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
-    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{257DA3DA-5CBF-44C8-AF96-57A945D7109F}">
   <ds:schemaRefs>

--- a/data/input_behavior/BehaviorScenario_Technology_Power.xlsx
+++ b/data/input_behavior/BehaviorScenario_Technology_Power.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\FLEX\data\input_behavior\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433843FB-2863-4342-AF55-F7C6EE76BDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="-17220" windowWidth="24615" windowHeight="13695"/>
+    <workbookView xWindow="14200" yWindow="-20500" windowWidth="10000" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="4">
   <si>
     <t>ID_Technology</t>
   </si>
@@ -36,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,21 +424,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -447,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -458,7 +471,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -469,7 +482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -480,7 +493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -491,7 +504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -502,7 +515,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -513,7 +526,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -524,7 +537,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -535,7 +548,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -546,7 +559,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -557,7 +570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -568,7 +581,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -579,7 +592,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -590,7 +603,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -601,7 +614,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -612,7 +625,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -623,7 +636,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -634,7 +647,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -645,7 +658,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -656,7 +669,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -667,29 +680,29 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -697,32 +710,32 @@
         <v>2</v>
       </c>
       <c r="C25" s="2">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="C26" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -730,32 +743,32 @@
         <v>2</v>
       </c>
       <c r="C28" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="2">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="2">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -763,32 +776,32 @@
         <v>2</v>
       </c>
       <c r="C31" s="2">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -796,72 +809,50 @@
         <v>2</v>
       </c>
       <c r="C34" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="C36" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="C37" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C38" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="4">
         <v>60</v>
       </c>
     </row>

--- a/data/input_behavior/BehaviorScenario_Technology_Power.xlsx
+++ b/data/input_behavior/BehaviorScenario_Technology_Power.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433843FB-2863-4342-AF55-F7C6EE76BDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978FBB20-E632-EC4B-B30D-4018E2EE17EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14200" yWindow="-20500" windowWidth="10000" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C40" sqref="C40:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -842,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="5">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -862,21 +862,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf">
-      <UserInfo>
-        <DisplayName>Yu, Songmin</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1085,21 +1076,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf">
+      <UserInfo>
+        <DisplayName>Yu, Songmin</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4123E9A7-AD52-4A33-BBDD-39D9E770116F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{257DA3DA-5CBF-44C8-AF96-57A945D7109F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
-    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1124,9 +1121,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{257DA3DA-5CBF-44C8-AF96-57A945D7109F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4123E9A7-AD52-4A33-BBDD-39D9E770116F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
+    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/input_behavior/BehaviorScenario_Technology_Power.xlsx
+++ b/data/input_behavior/BehaviorScenario_Technology_Power.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978FBB20-E632-EC4B-B30D-4018E2EE17EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D771C6E2-7EEC-204D-BC85-846A98DF0F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14200" yWindow="-20500" windowWidth="10000" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18800" yWindow="-20940" windowWidth="10000" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:C41"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>100</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -862,12 +862,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf">
+      <UserInfo>
+        <DisplayName>Yu, Songmin</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1076,27 +1085,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf">
-      <UserInfo>
-        <DisplayName>Yu, Songmin</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{257DA3DA-5CBF-44C8-AF96-57A945D7109F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4123E9A7-AD52-4A33-BBDD-39D9E770116F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
+    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1121,12 +1124,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4123E9A7-AD52-4A33-BBDD-39D9E770116F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{257DA3DA-5CBF-44C8-AF96-57A945D7109F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
-    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>